--- a/data/trans_orig/P36BPD07_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B7893A9-DCB3-4EC0-8C00-BF51F3E6A33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE7B2129-D758-4B41-876C-F393D9B869F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1C6C5313-8080-4109-9998-EA6D6DD257FB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1700621E-4F02-4662-B044-6A07603BEF15}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>16,62%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
   </si>
   <si>
     <t>11,19%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>83,38%</t>
   </si>
   <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>88,81%</t>
   </si>
   <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>20,27%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
   </si>
   <si>
     <t>19,4%</t>
   </si>
   <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
   </si>
   <si>
     <t>79,73%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>81,42%</t>
   </si>
   <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>80,6%</t>
   </si>
   <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>18,66%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>16,45%</t>
   </si>
   <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,49 +308,55 @@
     <t>23,28%</t>
   </si>
   <si>
-    <t>29,52%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>76,72%</t>
   </si>
   <si>
-    <t>70,48%</t>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +365,55 @@
     <t>14,31%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>92,79%</t>
   </si>
   <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +422,49 @@
     <t>19,71%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>19,41%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>80,29%</t>
   </si>
   <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>84,4%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
+    <t>80,59%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,19 +473,19 @@
     <t>57,89%</t>
   </si>
   <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>53,36%</t>
   </si>
   <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
   </si>
   <si>
     <t>55,61%</t>
@@ -494,31 +494,31 @@
     <t>48,83%</t>
   </si>
   <si>
-    <t>58,43%</t>
+    <t>58,37%</t>
   </si>
   <si>
     <t>42,11%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
   </si>
   <si>
     <t>46,64%</t>
   </si>
   <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
   </si>
   <si>
     <t>44,39%</t>
   </si>
   <si>
-    <t>41,57%</t>
+    <t>41,63%</t>
   </si>
   <si>
     <t>51,17%</t>
@@ -527,55 +527,55 @@
     <t>28,61%</t>
   </si>
   <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
   </si>
   <si>
     <t>71,39%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498B797A-2D51-4432-BD29-01625494EF89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3158AF3-7A4C-4A46-B3DD-87A0EB061CD8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1737,10 +1737,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -1749,13 +1749,13 @@
         <v>27887</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -1764,13 +1764,13 @@
         <v>73690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1785,13 @@
         <v>150944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>433</v>
@@ -1800,13 +1800,13 @@
         <v>203609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>652</v>
@@ -1815,13 +1815,13 @@
         <v>354554</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1889,13 @@
         <v>39679</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -1904,13 +1904,13 @@
         <v>19861</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -1919,13 +1919,13 @@
         <v>59540</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1940,13 @@
         <v>237544</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>430</v>
@@ -1955,13 +1955,13 @@
         <v>255761</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>754</v>
@@ -1970,13 +1970,13 @@
         <v>493305</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2044,13 @@
         <v>123168</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>160</v>
@@ -2059,13 +2059,13 @@
         <v>125313</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>265</v>
@@ -2074,13 +2074,13 @@
         <v>248480</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2095,13 @@
         <v>501573</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>797</v>
@@ -2110,13 +2110,13 @@
         <v>677941</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="M23" s="7">
         <v>1288</v>

--- a/data/trans_orig/P36BPD07_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE7B2129-D758-4B41-876C-F393D9B869F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C15F95-0D35-40B3-9F5E-4D123DC2BE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1700621E-4F02-4662-B044-6A07603BEF15}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5CAB7DA3-8601-4C56-A294-766B84A06B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población según el número de  bebidas carbonatadas y/o azucaradas que consume al día en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Una o más de una al día</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
   </si>
   <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,448 +134,454 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>14,31%</t>
+    <t>14,36%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>89,29%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
   </si>
   <si>
     <t>53,36%</t>
   </si>
   <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>46,64%</t>
   </si>
   <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3158AF3-7A4C-4A46-B3DD-87A0EB061CD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C870175-EB2E-4520-9A7F-D0098B790B66}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1117,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="7">
-        <v>43267</v>
+        <v>55695</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1126,7 +1132,7 @@
         <v>56</v>
       </c>
       <c r="I4" s="7">
-        <v>30369</v>
+        <v>35230</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1141,7 +1147,7 @@
         <v>105</v>
       </c>
       <c r="N4" s="7">
-        <v>73636</v>
+        <v>90925</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1162,7 +1168,7 @@
         <v>282</v>
       </c>
       <c r="D5" s="7">
-        <v>217031</v>
+        <v>255748</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1177,7 +1183,7 @@
         <v>482</v>
       </c>
       <c r="I5" s="7">
-        <v>241034</v>
+        <v>254405</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1192,7 +1198,7 @@
         <v>764</v>
       </c>
       <c r="N5" s="7">
-        <v>458064</v>
+        <v>510152</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1213,7 +1219,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1228,7 +1234,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1243,7 +1249,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1266,7 +1272,7 @@
         <v>71</v>
       </c>
       <c r="D7" s="7">
-        <v>105263</v>
+        <v>106112</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1281,7 +1287,7 @@
         <v>127</v>
       </c>
       <c r="I7" s="7">
-        <v>102707</v>
+        <v>96301</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1296,7 +1302,7 @@
         <v>198</v>
       </c>
       <c r="N7" s="7">
-        <v>207969</v>
+        <v>202414</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1317,7 +1323,7 @@
         <v>311</v>
       </c>
       <c r="D8" s="7">
-        <v>414034</v>
+        <v>412278</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1332,7 +1338,7 @@
         <v>588</v>
       </c>
       <c r="I8" s="7">
-        <v>450183</v>
+        <v>417076</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1347,7 +1353,7 @@
         <v>899</v>
       </c>
       <c r="N8" s="7">
-        <v>864218</v>
+        <v>829353</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1368,7 +1374,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1383,7 +1389,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>552890</v>
+        <v>513377</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1398,7 +1404,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1072187</v>
+        <v>1031767</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1421,7 +1427,7 @@
         <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>59973</v>
+        <v>59292</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1436,7 +1442,7 @@
         <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>43511</v>
+        <v>40920</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1451,7 +1457,7 @@
         <v>124</v>
       </c>
       <c r="N10" s="7">
-        <v>103484</v>
+        <v>100212</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1472,7 +1478,7 @@
         <v>296</v>
       </c>
       <c r="D11" s="7">
-        <v>261395</v>
+        <v>255921</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1487,7 +1493,7 @@
         <v>474</v>
       </c>
       <c r="I11" s="7">
-        <v>329043</v>
+        <v>307526</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1502,7 +1508,7 @@
         <v>770</v>
       </c>
       <c r="N11" s="7">
-        <v>590438</v>
+        <v>563447</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1523,7 +1529,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321368</v>
+        <v>315213</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1538,7 +1544,7 @@
         <v>535</v>
       </c>
       <c r="I12" s="7">
-        <v>372554</v>
+        <v>348446</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1553,7 +1559,7 @@
         <v>894</v>
       </c>
       <c r="N12" s="7">
-        <v>693922</v>
+        <v>663659</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1576,7 +1582,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>52994</v>
+        <v>52558</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1591,7 +1597,7 @@
         <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>59621</v>
+        <v>54788</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1606,7 +1612,7 @@
         <v>106</v>
       </c>
       <c r="N13" s="7">
-        <v>112614</v>
+        <v>107346</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1627,7 +1633,7 @@
         <v>250</v>
       </c>
       <c r="D14" s="7">
-        <v>269246</v>
+        <v>259999</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1642,7 +1648,7 @@
         <v>533</v>
       </c>
       <c r="I14" s="7">
-        <v>367824</v>
+        <v>419891</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1657,7 +1663,7 @@
         <v>783</v>
       </c>
       <c r="N14" s="7">
-        <v>637071</v>
+        <v>679890</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1678,7 +1684,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1693,7 +1699,7 @@
         <v>597</v>
       </c>
       <c r="I15" s="7">
-        <v>427445</v>
+        <v>474679</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1708,7 +1714,7 @@
         <v>889</v>
       </c>
       <c r="N15" s="7">
-        <v>749685</v>
+        <v>787236</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1731,7 +1737,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="7">
-        <v>45804</v>
+        <v>41348</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1746,7 +1752,7 @@
         <v>58</v>
       </c>
       <c r="I16" s="7">
-        <v>27887</v>
+        <v>24696</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1761,7 +1767,7 @@
         <v>118</v>
       </c>
       <c r="N16" s="7">
-        <v>73690</v>
+        <v>66044</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1782,7 +1788,7 @@
         <v>219</v>
       </c>
       <c r="D17" s="7">
-        <v>150944</v>
+        <v>137394</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1797,7 +1803,7 @@
         <v>433</v>
       </c>
       <c r="I17" s="7">
-        <v>203609</v>
+        <v>183578</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1812,7 +1818,7 @@
         <v>652</v>
       </c>
       <c r="N17" s="7">
-        <v>354554</v>
+        <v>320972</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1833,7 +1839,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1848,7 +1854,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1863,7 +1869,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1886,7 +1892,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="7">
-        <v>39679</v>
+        <v>38723</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1901,7 +1907,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="7">
-        <v>19861</v>
+        <v>18409</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1916,7 +1922,7 @@
         <v>77</v>
       </c>
       <c r="N19" s="7">
-        <v>59540</v>
+        <v>57132</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1937,7 +1943,7 @@
         <v>324</v>
       </c>
       <c r="D20" s="7">
-        <v>237544</v>
+        <v>230913</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1952,7 +1958,7 @@
         <v>430</v>
       </c>
       <c r="I20" s="7">
-        <v>255761</v>
+        <v>238647</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1967,7 +1973,7 @@
         <v>754</v>
       </c>
       <c r="N20" s="7">
-        <v>493305</v>
+        <v>469560</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1988,7 +1994,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2003,7 +2009,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2018,7 +2024,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2041,7 +2047,7 @@
         <v>105</v>
       </c>
       <c r="D22" s="7">
-        <v>123168</v>
+        <v>129144</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -2056,31 +2062,31 @@
         <v>160</v>
       </c>
       <c r="I22" s="7">
-        <v>125313</v>
+        <v>117346</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>265</v>
       </c>
       <c r="N22" s="7">
-        <v>248480</v>
+        <v>246490</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,46 +2098,46 @@
         <v>491</v>
       </c>
       <c r="D23" s="7">
-        <v>501573</v>
+        <v>492227</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>797</v>
       </c>
       <c r="I23" s="7">
-        <v>677941</v>
+        <v>731023</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1288</v>
       </c>
       <c r="N23" s="7">
-        <v>1179514</v>
+        <v>1223250</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,7 +2149,7 @@
         <v>596</v>
       </c>
       <c r="D24" s="7">
-        <v>624741</v>
+        <v>621371</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2158,7 +2164,7 @@
         <v>957</v>
       </c>
       <c r="I24" s="7">
-        <v>803254</v>
+        <v>848369</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2173,7 +2179,7 @@
         <v>1553</v>
       </c>
       <c r="N24" s="7">
-        <v>1427994</v>
+        <v>1469740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2187,7 +2193,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2196,46 +2202,46 @@
         <v>463</v>
       </c>
       <c r="D25" s="7">
-        <v>496822</v>
+        <v>419926</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>553</v>
       </c>
       <c r="I25" s="7">
-        <v>462559</v>
+        <v>382304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1016</v>
       </c>
       <c r="N25" s="7">
-        <v>959381</v>
+        <v>802231</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,46 +2253,46 @@
         <v>298</v>
       </c>
       <c r="D26" s="7">
-        <v>361334</v>
+        <v>507698</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>507</v>
       </c>
       <c r="I26" s="7">
-        <v>404371</v>
+        <v>334155</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>805</v>
       </c>
       <c r="N26" s="7">
-        <v>765705</v>
+        <v>841853</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2304,7 @@
         <v>761</v>
       </c>
       <c r="D27" s="7">
-        <v>858156</v>
+        <v>927624</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2313,7 +2319,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>866930</v>
+        <v>716459</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2328,7 +2334,7 @@
         <v>1821</v>
       </c>
       <c r="N27" s="7">
-        <v>1725086</v>
+        <v>1644084</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2351,46 +2357,46 @@
         <v>900</v>
       </c>
       <c r="D28" s="7">
-        <v>966968</v>
+        <v>902799</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1109</v>
       </c>
       <c r="I28" s="7">
-        <v>871827</v>
+        <v>769995</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>2009</v>
       </c>
       <c r="N28" s="7">
-        <v>1838795</v>
+        <v>1672793</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,46 +2408,46 @@
         <v>2471</v>
       </c>
       <c r="D29" s="7">
-        <v>2413102</v>
+        <v>2552177</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>4244</v>
       </c>
       <c r="I29" s="7">
-        <v>2929767</v>
+        <v>2886300</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>6715</v>
       </c>
       <c r="N29" s="7">
-        <v>5342869</v>
+        <v>5438477</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,7 +2459,7 @@
         <v>3371</v>
       </c>
       <c r="D30" s="7">
-        <v>3380070</v>
+        <v>3454976</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2468,7 +2474,7 @@
         <v>5353</v>
       </c>
       <c r="I30" s="7">
-        <v>3801594</v>
+        <v>3656295</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2489,7 @@
         <v>8724</v>
       </c>
       <c r="N30" s="7">
-        <v>7181664</v>
+        <v>7111270</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD07_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Provincia-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de  bebidas carbonatadas y/o azucaradas que consume al día en 2023</t>
+          <t>Población según el número de bebidas carbonatadas y/o azucaradas que consume al día en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
